--- a/Milestone3/Initial_Simulation_Block_Times.xlsx
+++ b/Milestone3/Initial_Simulation_Block_Times.xlsx
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15934.07300301467</v>
+        <v>16079.37239215708</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16680.33802953283</v>
+        <v>14994.12501961162</v>
       </c>
       <c r="D3" t="n">
         <v>20000</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15461.37537123199</v>
+        <v>15876.9338745272</v>
       </c>
       <c r="D4" t="n">
         <v>20000</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16748.82755181006</v>
+        <v>15982.85679066667</v>
       </c>
       <c r="D5" t="n">
         <v>20000</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15993.03471193331</v>
+        <v>16203.87643442792</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15372.20545886911</v>
+        <v>16305.30415115713</v>
       </c>
       <c r="D7" t="n">
         <v>20000</v>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>16585.8946284777</v>
+        <v>15463.51790049527</v>
       </c>
       <c r="D8" t="n">
         <v>20000</v>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>15023.61831210266</v>
+        <v>15639.37546566123</v>
       </c>
       <c r="D9" t="n">
         <v>20000</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>16366.45898031448</v>
+        <v>15776.79807709467</v>
       </c>
       <c r="D10" t="n">
         <v>20000</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>15753.06892386848</v>
+        <v>15344.92917468413</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15991.88949711553</v>
+        <v>15766.70892804829</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>565.9896599514443</v>
+        <v>389.9810993885404</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14">
@@ -629,14 +629,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CI:+-404.499</t>
+          <t>CI:+-278.710</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15587.39097770906</v>
+        <v>15487.99928287085</v>
       </c>
       <c r="D14" t="n">
-        <v>16396.388016522</v>
+        <v>16045.41857322574</v>
       </c>
     </row>
     <row r="15">
@@ -645,14 +645,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PI:+-1467.515</t>
+          <t>PI:+-1011.155</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14524.37479682233</v>
+        <v>14755.55441996367</v>
       </c>
       <c r="D15" t="n">
-        <v>17459.40419740873</v>
+        <v>16777.86343613292</v>
       </c>
     </row>
   </sheetData>
